--- a/data/trans_camb/P1408-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.5279068763110406</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3072677099771345</v>
+        <v>0.3072677099771343</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.632666986808879</v>
+        <v>-2.583353011089013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.075588326683909</v>
+        <v>-2.03754094189024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.69269584136004</v>
+        <v>-2.594587107676954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.007011918881054</v>
+        <v>-1.213092312291187</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.002668583432385</v>
+        <v>-1.325034669710544</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3958391368006265</v>
+        <v>0.423125688038328</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.47219256003135</v>
+        <v>-1.559636874446994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.212519990874872</v>
+        <v>-1.151281062529231</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6668294824773122</v>
+        <v>-0.6676248843325219</v>
       </c>
     </row>
     <row r="6">
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5227360088755555</v>
+        <v>-0.5651417172831612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3371435959952877</v>
+        <v>0.2022001623814691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5262120792152485</v>
+        <v>-0.5215651205909129</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.550853352801756</v>
+        <v>6.189224902644963</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.3665589128279512</v>
+        <v>-0.3655674654903844</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06080147226133197</v>
+        <v>0.05836127722192781</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.493150335348564</v>
+        <v>2.237178258246249</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.6877229486574451</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4002885073392937</v>
+        <v>0.4002885073392935</v>
       </c>
     </row>
     <row r="8">
@@ -792,7 +792,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7862419459259244</v>
+        <v>-0.7588114385639524</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>2.124760784553136</v>
+        <v>0.9512227707641935</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
@@ -812,10 +812,10 @@
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.6019217257013114</v>
+        <v>0.7636975475463563</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.49720757522569</v>
+        <v>5.964517300551925</v>
       </c>
     </row>
     <row r="10">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.921551328050368</v>
+        <v>-1.849888209672707</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.663336956778251</v>
+        <v>-1.71141582159352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.514278462680189</v>
+        <v>-1.597687062753847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.085597977565564</v>
+        <v>-3.029903227834427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.698281523187522</v>
+        <v>-2.734469574876494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.192994630762935</v>
+        <v>-2.107545490880907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.047098456936302</v>
+        <v>-2.034371567604552</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.762551972451769</v>
+        <v>-1.815121132549938</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.440071543626851</v>
+        <v>-1.498115751764899</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3137766491917768</v>
+        <v>-0.2579862523860539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05190924184986179</v>
+        <v>0.1124140764343919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4712940843636265</v>
+        <v>0.4768087491574387</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6348575779334862</v>
+        <v>-0.6111821692452941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1538392565854163</v>
+        <v>-0.258852822427955</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6624088183238248</v>
+        <v>0.8615795818176536</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.6912104241448703</v>
+        <v>-0.6832358267437649</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2637968768123566</v>
+        <v>-0.310953226464294</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2940911960629237</v>
+        <v>0.2640493717075222</v>
       </c>
     </row>
     <row r="13">
@@ -969,32 +969,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9419420322706271</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8414844253922702</v>
+        <v>-0.8502971797760668</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8954593367565554</v>
+        <v>-0.8998268705298084</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7963059456546325</v>
+        <v>-0.8142131905761035</v>
       </c>
     </row>
     <row r="15">
@@ -1004,32 +1000,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>0.04029123021264888</v>
-      </c>
+      <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>0.5315507001531832</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9740565226841816</v>
-      </c>
+        <v>0.8844706808219616</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>-0.260604256064603</v>
+        <v>-0.2265226724064682</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06746786524900453</v>
+        <v>0.1498986627943945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7235578968752333</v>
+        <v>1.067243213904007</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.5392036389197562</v>
+        <v>-0.5505846758360833</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1907940323742684</v>
+        <v>-0.2249351495064235</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3642131083977767</v>
+        <v>0.3811947361097311</v>
       </c>
     </row>
     <row r="16">
@@ -1079,31 +1071,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.549116907129077</v>
+        <v>-1.567053231024788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.72931680202611</v>
+        <v>-1.692912300333374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.86324654144346</v>
+        <v>-1.778825966940417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.979657478627926</v>
+        <v>-2.052561219117466</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.132343528130859</v>
+        <v>-2.131937940070946</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.094624888892818</v>
+        <v>-2.091225260106077</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.4348851041342</v>
+        <v>-1.442437615322621</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.600271283811435</v>
+        <v>-1.596569572398942</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.577309652961974</v>
+        <v>-1.588548874729826</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1106,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5471472293390514</v>
+        <v>0.5944045174893892</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2654120126871479</v>
+        <v>0.3540434887951798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1997392850427307</v>
+        <v>0.1980423280629295</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.305526247005919</v>
+        <v>0.1828655014917669</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.01028823540612378</v>
+        <v>0.1093665834675407</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.004407924668831995</v>
+        <v>-0.005181717116707508</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1213490052871851</v>
+        <v>0.06260388442731188</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.05676701430869638</v>
+        <v>-0.09646110024904896</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.1043591386708151</v>
+        <v>-0.1561573475808953</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1176,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8656837561300991</v>
+        <v>-0.8501120069100891</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
@@ -1193,22 +1185,22 @@
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8923744178389666</v>
+        <v>-0.872187448543318</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9120687635847029</v>
+        <v>-0.9202682441090273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.912942264015125</v>
+        <v>-0.8904994258197543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8047161003586245</v>
+        <v>-0.792409869660143</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8619010197239401</v>
+        <v>-0.849333939633086</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8688719045310875</v>
+        <v>-0.876806622894963</v>
       </c>
     </row>
     <row r="21">
@@ -1219,31 +1211,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.357514368646184</v>
+        <v>1.403761541775816</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8837869240287635</v>
+        <v>1.593435658270607</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.171910820792285</v>
+        <v>1.322477755773927</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4241668575255985</v>
+        <v>0.5704447942920134</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2245977945172218</v>
+        <v>0.5561489201445131</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1783089005969183</v>
+        <v>0.3621524901566981</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.168559674577862</v>
+        <v>0.1754682431337861</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04687014705772913</v>
+        <v>0.03565954616286516</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04749988286799157</v>
+        <v>-0.05412346205638693</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1256,7 @@
         <v>-1.630357047859332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.8358482037390689</v>
+        <v>-0.8358482037390692</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.129619286880236</v>
@@ -1293,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.576709397662291</v>
+        <v>-3.453949373324813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.644608045486646</v>
+        <v>-3.470688042814757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.905263455806775</v>
+        <v>-3.053421795850541</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.857569627712393</v>
+        <v>-3.992233645984047</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.025465649156194</v>
+        <v>-4.200312783127106</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.956074646191353</v>
+        <v>-3.156183454647695</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.093323818735847</v>
+        <v>-3.21580380233278</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.18734726753132</v>
+        <v>-3.335346568576503</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.497027031215532</v>
+        <v>-2.561137016270913</v>
       </c>
     </row>
     <row r="24">
@@ -1328,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2187817977679514</v>
+        <v>0.2979633451192373</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1519283189032809</v>
+        <v>-0.05830974769307418</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.045989021952174</v>
+        <v>0.8822845279530198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4615512505053223</v>
+        <v>-0.4626040817953271</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.8588914381797217</v>
+        <v>-0.9420517630639869</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.243378656692297</v>
+        <v>0.1733982419598056</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.5341203474228194</v>
+        <v>-0.7224458690504978</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.8036886655777777</v>
+        <v>-0.9187116708764754</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1496506373047083</v>
+        <v>0.1361107795632574</v>
       </c>
     </row>
     <row r="25">
@@ -1369,7 +1361,7 @@
         <v>-0.5891968967914099</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3020682914079228</v>
+        <v>-0.3020682914079229</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.7259219440995558</v>
@@ -1378,7 +1370,7 @@
         <v>-0.7886310017848137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4359925349459693</v>
+        <v>-0.4359925349459695</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.6483992573708296</v>
@@ -1398,31 +1390,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8668631673850306</v>
+        <v>-0.8785640675454844</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8595373716903878</v>
+        <v>-0.8526044143194866</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7207428520245186</v>
+        <v>-0.7258823658014938</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9382736917919156</v>
+        <v>-0.9370728446068169</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.9520764688141841</v>
+        <v>-0.9499093709776646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7053977352014205</v>
+        <v>-0.6935232423228156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8502399520928557</v>
+        <v>-0.845688419126268</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8537056380221713</v>
+        <v>-0.8609469321503695</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6485020418426368</v>
+        <v>-0.6477217357898643</v>
       </c>
     </row>
     <row r="27">
@@ -1433,31 +1425,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3951903661892338</v>
+        <v>0.5240726006250299</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02589070788662573</v>
+        <v>0.04311491617821116</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7452091128021633</v>
+        <v>0.5396728709588485</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.09222122646496088</v>
+        <v>-0.06643105790905313</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3578440295432115</v>
+        <v>-0.3264701432951866</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1546877599596053</v>
+        <v>0.2133528058043362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2111531333262301</v>
+        <v>-0.2341500879105708</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.365145087199035</v>
+        <v>-0.3553466855310135</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.07519835539318115</v>
+        <v>0.08414126939134943</v>
       </c>
     </row>
     <row r="28">
@@ -1487,7 +1479,7 @@
         <v>-0.9593629501715313</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6537904938265137</v>
+        <v>0.6537904938265129</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.51560023263544</v>
@@ -1507,31 +1499,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.170462600913054</v>
+        <v>-6.147735155578751</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.360626156625079</v>
+        <v>-5.223465490092429</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.113543176469494</v>
+        <v>-5.786368827422561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.42018405694506</v>
+        <v>-2.140699004347274</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.7896714562119</v>
+        <v>-3.007309810764626</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.345867722607208</v>
+        <v>-1.526761720911961</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.294286238685006</v>
+        <v>-3.258664486584816</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.465832440235082</v>
+        <v>-3.369177900303998</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.792800886082138</v>
+        <v>-2.762724373440837</v>
       </c>
     </row>
     <row r="30">
@@ -1542,31 +1534,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.371462803116367</v>
+        <v>0.1703740542508807</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7759954513568775</v>
+        <v>1.08109750260053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5560822413379215</v>
+        <v>-0.5819946842742547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.746355112228618</v>
+        <v>1.709498489648106</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8527840527194259</v>
+        <v>0.7889707159235929</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.261741263121699</v>
+        <v>2.323188481426743</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2459033016814383</v>
+        <v>0.2695188454948133</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.149719512328313</v>
+        <v>0.2274870747115265</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4257651518943638</v>
+        <v>0.4063057388981211</v>
       </c>
     </row>
     <row r="31">
@@ -1592,7 +1584,7 @@
         <v>-0.4160057611709675</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2835012671502607</v>
+        <v>0.2835012671502604</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3525150146764838</v>
@@ -1612,31 +1604,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7307733208351627</v>
+        <v>-0.7581510041656524</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6574964459649317</v>
+        <v>-0.6587934972344637</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7071975858874087</v>
+        <v>-0.7008175257956221</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6713712131316086</v>
+        <v>-0.6491183182802882</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8338483310791024</v>
+        <v>-0.8221913149747728</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3954344212057911</v>
+        <v>-0.3905814207546944</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6177827550828778</v>
+        <v>-0.6265300626855081</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6477717438451062</v>
+        <v>-0.6272396245137222</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5201232876330159</v>
+        <v>-0.5176641346232582</v>
       </c>
     </row>
     <row r="33">
@@ -1647,31 +1639,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1819393019624042</v>
+        <v>0.04701776135255992</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2473330318188986</v>
+        <v>0.2693159132226617</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08852790830147586</v>
+        <v>-0.1103264130094019</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.524579934805804</v>
+        <v>1.419208524745127</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8158642478135606</v>
+        <v>0.7873022371644161</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.896269739660023</v>
+        <v>1.871524823004693</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1053558170856024</v>
+        <v>0.1198845747638368</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07802897056793391</v>
+        <v>0.09897140059301131</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1378954693234702</v>
+        <v>0.1150051078321609</v>
       </c>
     </row>
     <row r="34">
@@ -1721,31 +1713,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.464768700145495</v>
+        <v>-9.302307462794008</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.45498777557484</v>
+        <v>-10.3349741232532</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.421237368479629</v>
+        <v>-8.278490140139207</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.749190772482994</v>
+        <v>-6.960758476831819</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.533482414432248</v>
+        <v>-5.451170430406979</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.50405296271524</v>
+        <v>-4.678948492748266</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.157667689131266</v>
+        <v>-6.928525442658956</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.962079981195099</v>
+        <v>-6.764202814144888</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.79950383982811</v>
+        <v>-5.46688472554125</v>
       </c>
     </row>
     <row r="36">
@@ -1756,31 +1748,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.5330813641047798</v>
+        <v>-0.5151415704945645</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.375438128209323</v>
+        <v>-2.472244829096631</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3309291348640419</v>
+        <v>-0.3763514097907311</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.268071483327451</v>
+        <v>-1.318354223907763</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6518755972656538</v>
+        <v>0.8298303583250701</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.9188735842227383</v>
+        <v>1.113604223831062</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.903946663931963</v>
+        <v>-1.876288196882933</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.937452090289461</v>
+        <v>-1.812800915555266</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.06465242422477727</v>
+        <v>-0.5775610933092059</v>
       </c>
     </row>
     <row r="37">
@@ -1806,7 +1798,7 @@
         <v>-0.4068890953297513</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.267900693776056</v>
+        <v>-0.2679006937760562</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.5522224938200451</v>
@@ -1815,7 +1807,7 @@
         <v>-0.5281516572095065</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.339477364986725</v>
+        <v>-0.3394773649867249</v>
       </c>
     </row>
     <row r="38">
@@ -1826,31 +1818,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7123018787939356</v>
+        <v>-0.7069473720583421</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8108411756521846</v>
+        <v>-0.8091225404538852</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6327448842222907</v>
+        <v>-0.6260800737984782</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8924511120631377</v>
+        <v>-0.8918264684660763</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7340694689970128</v>
+        <v>-0.7202647556630697</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5676772740528633</v>
+        <v>-0.5974506213994087</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.7458635660705842</v>
+        <v>-0.7458287113233411</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7259963851399572</v>
+        <v>-0.7098492169562859</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5149470271410712</v>
+        <v>-0.5472952808362949</v>
       </c>
     </row>
     <row r="39">
@@ -1861,31 +1853,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02484819867900679</v>
+        <v>-0.01786258066395115</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2943399723565152</v>
+        <v>-0.281460872718863</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.03556579472876116</v>
+        <v>-0.03111308471791011</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.2286928078564942</v>
+        <v>-0.2788937388307458</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1863542765259786</v>
+        <v>0.2397963978837689</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2562473407925113</v>
+        <v>0.3029017512005646</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2762427756489636</v>
+        <v>-0.270977822406145</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2797198152889213</v>
+        <v>-0.2439055775471432</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.01057761766605811</v>
+        <v>-0.07984428478949632</v>
       </c>
     </row>
     <row r="40">
@@ -1906,7 +1898,7 @@
         <v>-14.36038298708539</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-13.24393058485537</v>
+        <v>-13.24393058485536</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.998382152723733</v>
@@ -1935,31 +1927,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-16.8975729422067</v>
+        <v>-17.18037598096728</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-20.7684662420282</v>
+        <v>-20.14931157142482</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-20.4547206846032</v>
+        <v>-19.05330921496132</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.754079330294034</v>
+        <v>-6.954194735502253</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.395502034514521</v>
+        <v>-7.334819569264994</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.141366323062919</v>
+        <v>-4.597437545380395</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-9.536553354470003</v>
+        <v>-9.402681720154719</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-11.21725468306262</v>
+        <v>-10.9949107068384</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.846839043984113</v>
+        <v>-8.900380394788924</v>
       </c>
     </row>
     <row r="42">
@@ -1970,31 +1962,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-2.776184506889769</v>
+        <v>-3.535750856749932</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-7.963331240083975</v>
+        <v>-8.10890982140242</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-7.642281702796142</v>
+        <v>-7.202056493423516</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4662058147449984</v>
+        <v>0.269282379676193</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.0202992668927917</v>
+        <v>0.1609723521507804</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.187560259146715</v>
+        <v>2.252000203879768</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.250640720119233</v>
+        <v>-2.300894955876341</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.290112184179875</v>
+        <v>-4.487458761024618</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.560837378375836</v>
+        <v>-2.356765546623021</v>
       </c>
     </row>
     <row r="43">
@@ -2011,7 +2003,7 @@
         <v>-0.6680712320759602</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.6161318281907885</v>
+        <v>-0.6161318281907884</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.4128334286471105</v>
@@ -2040,31 +2032,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6630505313712107</v>
+        <v>-0.6669236263264255</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8113371144156791</v>
+        <v>-0.7962720048363081</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7404453283260782</v>
+        <v>-0.7476162003524697</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6970641641383571</v>
+        <v>-0.6951093842587659</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7537546371436739</v>
+        <v>-0.7578697132582075</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4767680011619675</v>
+        <v>-0.4588004558323723</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6362911558866823</v>
+        <v>-0.6392772634613595</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7477249964883194</v>
+        <v>-0.7367029714423794</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.583136107776146</v>
+        <v>-0.5885088823189529</v>
       </c>
     </row>
     <row r="45">
@@ -2075,31 +2067,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1735825604432935</v>
+        <v>-0.1727189805099593</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.4596121792259749</v>
+        <v>-0.4640925513636194</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.4255025083853816</v>
+        <v>-0.4304924658200374</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.187203185467979</v>
+        <v>0.1629647185419425</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02834215632032758</v>
+        <v>0.05479838627140883</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.449970068281717</v>
+        <v>0.4653442209632386</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1887251111402008</v>
+        <v>-0.2131835510043086</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.3880029709572018</v>
+        <v>-0.4008093345204087</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2378368959185715</v>
+        <v>-0.2325487755674271</v>
       </c>
     </row>
     <row r="46">
@@ -2129,7 +2121,7 @@
         <v>-1.424553379010153</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.1384157104017875</v>
+        <v>-0.1384157104017871</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.755446228643095</v>
@@ -2149,31 +2141,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.839073227062439</v>
+        <v>-2.844876087841123</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.048983635989987</v>
+        <v>-3.032021684054804</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.455672240327479</v>
+        <v>-2.468683164883102</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.195951871627019</v>
+        <v>-2.184188936674239</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.098025572546664</v>
+        <v>-2.074076923867141</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.8545033931340507</v>
+        <v>-0.9620874918618572</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.34726667123902</v>
+        <v>-2.315079263773216</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.405690714875523</v>
+        <v>-2.356586200568994</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.405525181994439</v>
+        <v>-1.408715502084063</v>
       </c>
     </row>
     <row r="48">
@@ -2184,31 +2176,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.051761721500196</v>
+        <v>-1.122225537361397</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.314679032154568</v>
+        <v>-1.398805609381905</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.7569354939570315</v>
+        <v>-0.6610503185879799</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.8105465701936914</v>
+        <v>-0.8686148296381822</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.7589896527042373</v>
+        <v>-0.7422316651172713</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.5639701711512419</v>
+        <v>0.5634753754440762</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.221078587049136</v>
+        <v>-1.236309999248261</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.215259927873668</v>
+        <v>-1.280069301420007</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.309242239776595</v>
+        <v>-0.3023812972469655</v>
       </c>
     </row>
     <row r="49">
@@ -2234,7 +2226,7 @@
         <v>-0.5259056880642888</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.05109925011608889</v>
+        <v>-0.05109925011608876</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.5134519661145616</v>
@@ -2254,31 +2246,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6247367226609349</v>
+        <v>-0.6116875109172697</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.639895684001215</v>
+        <v>-0.6431975052192681</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5298607350588558</v>
+        <v>-0.5343137853656731</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6944101126534027</v>
+        <v>-0.6937691111238621</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6717647741113968</v>
+        <v>-0.6767710738718987</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2778294352060854</v>
+        <v>-0.2942158710242437</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6163973152408745</v>
+        <v>-0.6232458573156472</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6242325780362358</v>
+        <v>-0.6271317737648866</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3675939134686256</v>
+        <v>-0.3742493062398684</v>
       </c>
     </row>
     <row r="51">
@@ -2289,31 +2281,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3044117364497139</v>
+        <v>-0.2945193688919965</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3546139250278754</v>
+        <v>-0.356271803756948</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2097492726307657</v>
+        <v>-0.1868131019528512</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.3427644296544007</v>
+        <v>-0.3627069936990436</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.3194606460353929</v>
+        <v>-0.3227056891162917</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2430580083762759</v>
+        <v>0.2596848252464196</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3881555946214793</v>
+        <v>-0.3880590863896671</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3876596527567683</v>
+        <v>-0.3995365411364978</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.09695645767305783</v>
+        <v>-0.09582347098260582</v>
       </c>
     </row>
     <row r="52">
